--- a/Aula3/Aula-3.xlsx
+++ b/Aula3/Aula-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\simulacao-e-teste-software\Aula3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A6AD99-53B2-41FC-BDF8-EF6B052D9D3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29F10B-8679-4126-AA89-44FBDEA116AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Programa</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Link para o programa: https://github.com/huine/simulacao-e-teste-software/tree/master/Aula3</t>
   </si>
 </sst>
 </file>
@@ -107,8 +110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="175" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="177" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -154,22 +157,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -178,13 +181,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +510,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2005,7 +2011,18 @@
         <v>21</v>
       </c>
     </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:D26"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
